--- a/know how/cliptest/result.xlsx
+++ b/know how/cliptest/result.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaken\Desktop\github\D3-ForceLayoutMemo\know how\cliptest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8F5753-8C3D-446A-908B-3A03048FCE52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54C69C-3DF9-4422-97B3-187C02BCD59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41850" yWindow="7185" windowWidth="28695" windowHeight="24165" xr2:uid="{3C4B3993-8B3D-4221-879B-F960F1505B7E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3C4B3993-8B3D-4221-879B-F960F1505B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,43 +254,122 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>465428</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>90921</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563D28BE-4979-4F43-A936-D78910D0857C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5C5E48-9BAA-47F2-AECD-018AE40E0A96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="66631" t="8103" r="22039" b="34019"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6370928" cy="5771285"/>
+          <a:off x="1409700" y="7620000"/>
+          <a:ext cx="9410700" cy="4638675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BC8115-EF19-4910-A182-1390DAC7C249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="723900"/>
+          <a:ext cx="6334125" cy="5953125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -327,7 +401,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -336,49 +410,6 @@
         <a:xfrm>
           <a:off x="7671954" y="727364"/>
           <a:ext cx="3961905" cy="4695238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C83960E-FC04-4DCB-83EF-2B85D908B4F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="66772" t="2939" r="15969" b="53280"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1476375" y="8334375"/>
-          <a:ext cx="9239250" cy="4643438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,9 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3A00FF-385D-4774-B0AC-607376A25A65}">
   <dimension ref="A2:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1953,9 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A99F64-ED5E-4701-BF7D-8761EF6ACFBB}">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1967,6 +1994,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>